--- a/stunting.xlsx
+++ b/stunting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CAAD7D-BC47-4F6D-BDC6-D6377DF17E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16C7D0-9AFD-4260-9F8B-47F45BF9977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>Provinsi</t>
-  </si>
-  <si>
     <t>Stunting</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Severity Stunting</t>
+  </si>
+  <si>
+    <t>Province</t>
   </si>
 </sst>
 </file>
@@ -183,6 +183,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -538,9 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -552,24 +551,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>394129</v>
@@ -586,7 +585,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>946365</v>
@@ -603,7 +602,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>377410</v>
@@ -620,7 +619,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>368260</v>
@@ -637,7 +636,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>209492</v>
@@ -654,7 +653,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>588116</v>
@@ -671,7 +670,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>107916</v>
@@ -688,7 +687,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>533985</v>
@@ -705,7 +704,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>97246</v>
@@ -722,7 +721,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>118312</v>
@@ -739,7 +738,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>361697</v>
@@ -756,7 +755,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3087192</v>
@@ -773,7 +772,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1940103</v>
@@ -790,7 +789,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>163458</v>
@@ -807,7 +806,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2213827</v>
@@ -824,7 +823,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>760984</v>
@@ -841,7 +840,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>176827</v>
@@ -858,7 +857,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>441000</v>
@@ -875,7 +874,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>421957</v>
@@ -892,7 +891,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>357582</v>
@@ -909,7 +908,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>113911</v>
@@ -926,7 +925,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>259313</v>
@@ -943,7 +942,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>196073</v>
@@ -960,7 +959,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>45742</v>
@@ -977,7 +976,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>131656</v>
@@ -994,7 +993,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>167399</v>
@@ -1011,7 +1010,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>564938</v>
@@ -1028,7 +1027,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>157178</v>
@@ -1045,7 +1044,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>84718</v>
@@ -1062,7 +1061,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>89544</v>
@@ -1079,7 +1078,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>132847</v>
@@ -1096,7 +1095,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>80164</v>
@@ -1113,7 +1112,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>28128</v>
@@ -1130,7 +1129,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>51254</v>
@@ -1147,7 +1146,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>35146</v>
@@ -1164,7 +1163,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>24201</v>
@@ -1181,7 +1180,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>54811</v>
@@ -1198,7 +1197,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>28449</v>
@@ -1215,7 +1214,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>15911330</v>

--- a/stunting.xlsx
+++ b/stunting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16C7D0-9AFD-4260-9F8B-47F45BF9977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEDCB5A-4B88-41E2-A356-3A182A9AE3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Stunting</t>
   </si>
@@ -141,21 +141,6 @@
   </si>
   <si>
     <t>PAPUA</t>
-  </si>
-  <si>
-    <t>PAPUA PEGUNUNGAN</t>
-  </si>
-  <si>
-    <t>PAPUA SELATAN</t>
-  </si>
-  <si>
-    <t>PAPUA TENGAH</t>
-  </si>
-  <si>
-    <t>PAPUA BARAT DAYA</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>Jumlah Balita</t>
@@ -171,6 +156,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,12 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -551,16 +543,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1132,101 +1124,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>51254</v>
+        <v>193861</v>
       </c>
       <c r="C35">
-        <v>3427</v>
+        <v>11831</v>
       </c>
       <c r="D35">
-        <v>1013</v>
-      </c>
-      <c r="E35">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>35146</v>
-      </c>
-      <c r="C36">
-        <v>895</v>
-      </c>
-      <c r="D36">
-        <v>659</v>
-      </c>
-      <c r="E36">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>24201</v>
-      </c>
-      <c r="C37">
-        <v>2141</v>
-      </c>
-      <c r="D37">
-        <v>921</v>
-      </c>
-      <c r="E37">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>54811</v>
-      </c>
-      <c r="C38">
-        <v>3853</v>
-      </c>
-      <c r="D38">
-        <v>1676</v>
-      </c>
-      <c r="E38">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>28449</v>
-      </c>
-      <c r="C39">
-        <v>1515</v>
-      </c>
-      <c r="D39">
-        <v>660</v>
-      </c>
-      <c r="E39">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>15911330</v>
-      </c>
-      <c r="C40">
-        <v>728563</v>
-      </c>
-      <c r="D40">
-        <v>238518</v>
-      </c>
-      <c r="E40">
-        <v>6.1</v>
+        <v>4929</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.6453696205012864</v>
       </c>
     </row>
   </sheetData>
